--- a/opm_hero_property/heroes/20.xlsx
+++ b/opm_hero_property/heroes/20.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11026</v>
       </c>
       <c r="D4" t="n">
-        <v>11026</v>
+        <v>11551</v>
       </c>
       <c r="E4" t="n">
         <v>246</v>
@@ -1304,7 +1305,7 @@
         <v>12190</v>
       </c>
       <c r="D5" t="n">
-        <v>12190</v>
+        <v>13308</v>
       </c>
       <c r="E5" t="n">
         <v>370</v>
@@ -1411,7 +1412,7 @@
         <v>13558</v>
       </c>
       <c r="D6" t="n">
-        <v>13558</v>
+        <v>15375</v>
       </c>
       <c r="E6" t="n">
         <v>506</v>
@@ -1518,7 +1519,7 @@
         <v>15132</v>
       </c>
       <c r="D7" t="n">
-        <v>15132</v>
+        <v>19691</v>
       </c>
       <c r="E7" t="n">
         <v>950</v>
@@ -1625,7 +1626,7 @@
         <v>16911</v>
       </c>
       <c r="D8" t="n">
-        <v>16911</v>
+        <v>25661</v>
       </c>
       <c r="E8" t="n">
         <v>1407</v>
@@ -1732,7 +1733,7 @@
         <v>18963</v>
       </c>
       <c r="D9" t="n">
-        <v>18963</v>
+        <v>33698</v>
       </c>
       <c r="E9" t="n">
         <v>1857</v>
@@ -1839,7 +1840,7 @@
         <v>20058</v>
       </c>
       <c r="D10" t="n">
-        <v>20058</v>
+        <v>40391</v>
       </c>
       <c r="E10" t="n">
         <v>2194</v>
@@ -1946,7 +1947,7 @@
         <v>21358</v>
       </c>
       <c r="D11" t="n">
-        <v>21358</v>
+        <v>48609</v>
       </c>
       <c r="E11" t="n">
         <v>2560</v>
@@ -2053,7 +2054,7 @@
         <v>24095</v>
       </c>
       <c r="D12" t="n">
-        <v>24095</v>
+        <v>63236</v>
       </c>
       <c r="E12" t="n">
         <v>3151</v>
@@ -2160,7 +2161,7 @@
         <v>24643</v>
       </c>
       <c r="D13" t="n">
-        <v>24643</v>
+        <v>65304</v>
       </c>
       <c r="E13" t="n">
         <v>3545</v>
@@ -2267,7 +2268,7 @@
         <v>25190</v>
       </c>
       <c r="D14" t="n">
-        <v>25190</v>
+        <v>67371</v>
       </c>
       <c r="E14" t="n">
         <v>3939</v>
@@ -2374,7 +2375,7 @@
         <v>25737</v>
       </c>
       <c r="D15" t="n">
-        <v>25737</v>
+        <v>69439</v>
       </c>
       <c r="E15" t="n">
         <v>4333</v>
@@ -2481,7 +2482,7 @@
         <v>26285</v>
       </c>
       <c r="D16" t="n">
-        <v>26285</v>
+        <v>71506</v>
       </c>
       <c r="E16" t="n">
         <v>4726</v>
@@ -2588,7 +2589,7 @@
         <v>26832</v>
       </c>
       <c r="D17" t="n">
-        <v>26832</v>
+        <v>73574</v>
       </c>
       <c r="E17" t="n">
         <v>5120</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29347.8414692</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5455.541937200001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2089.4651375</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41408.0147646</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7728.0678476</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3334.358169</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75372.5745124</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13365.9987</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7349.932065999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75372.5745124</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13365.9987</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7349.932065999999</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>67159.52550039999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12060.4677</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6451.447486</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>276577.3310102</v>
+      </c>
+      <c r="U7" t="n">
+        <v>45927.96032</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32652.9734684</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>239129.1144842</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40453.59871999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>27871.6041764</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>20</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>251611.8533262</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42278.38591999999</v>
+      </c>
+      <c r="V9" t="n">
+        <v>29465.3939404</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>264094.5921682</v>
+      </c>
+      <c r="U10" t="n">
+        <v>44103.17311999999</v>
+      </c>
+      <c r="V10" t="n">
+        <v>31059.1837044</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>276577.3310102</v>
+      </c>
+      <c r="U11" t="n">
+        <v>45927.96032</v>
+      </c>
+      <c r="V11" t="n">
+        <v>32652.9734684</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>276577.3310102</v>
+      </c>
+      <c r="U12" t="n">
+        <v>45927.96032</v>
+      </c>
+      <c r="V12" t="n">
+        <v>32652.9734684</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>412094.503135</v>
+      </c>
+      <c r="U13" t="n">
+        <v>68079.56307600001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>55382.24353860001</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>20</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>412094.503135</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68079.56307600001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>55382.24353860001</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>20</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1005043.2670386</v>
+      </c>
+      <c r="U15" t="n">
+        <v>164928.225452</v>
+      </c>
+      <c r="V15" t="n">
+        <v>155834.7416</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5218639.9720946</v>
+      </c>
+      <c r="U16" t="n">
+        <v>857993.1611936</v>
+      </c>
+      <c r="V16" t="n">
+        <v>789459.6486066001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>20</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8536650.2764493</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1402170.3630944</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1283233.4719912</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224649.9018131</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41264.5443764</v>
+      </c>
+      <c r="V18" t="n">
+        <v>25472.9293796</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>20</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>305108.59819</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53661.02259920001</v>
+      </c>
+      <c r="V19" t="n">
+        <v>36459.1619814</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>20</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>395785.2148398</v>
+      </c>
+      <c r="U20" t="n">
+        <v>67021.33872699999</v>
+      </c>
+      <c r="V20" t="n">
+        <v>52570.9933468</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>20</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>459082.0962075</v>
+      </c>
+      <c r="U21" t="n">
+        <v>78788.28474799999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>63555.0717577</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>20</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>529460.7263400001</v>
+      </c>
+      <c r="U22" t="n">
+        <v>94802.951674</v>
+      </c>
+      <c r="V22" t="n">
+        <v>77713.4688418</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>20</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>673737.9329417</v>
+      </c>
+      <c r="U23" t="n">
+        <v>127640.9916832</v>
+      </c>
+      <c r="V23" t="n">
+        <v>106449.6567698</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/20.xlsx
+++ b/opm_hero_property/heroes/20.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29347.8414692</v>
+        <v>5353516.9720946</v>
       </c>
       <c r="U2" t="n">
-        <v>5455.541937200001</v>
+        <v>881721.1611936</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.4651375</v>
+        <v>811299.6486066001</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1740</v>
+        <v>2700</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11214296.84959</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2300513.46422839</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16117704.96381839</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41408.0147646</v>
+        <v>673737.9329417</v>
       </c>
       <c r="U3" t="n">
-        <v>7728.0678476</v>
+        <v>127640.9916832</v>
       </c>
       <c r="V3" t="n">
-        <v>3334.358169</v>
+        <v>106449.6567698</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1740</v>
+        <v>2700</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1271239.51893</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>261130.78305213</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2181885.30198213</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75372.5745124</v>
+        <v>7401.667600000001</v>
       </c>
       <c r="U4" t="n">
-        <v>13365.9987</v>
+        <v>1569.4502</v>
       </c>
       <c r="V4" t="n">
-        <v>7349.932065999999</v>
+        <v>576.5375</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1740</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>18809.314605</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23359.264605</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75372.5745124</v>
+        <v>19753.4238</v>
       </c>
       <c r="U5" t="n">
-        <v>13365.9987</v>
+        <v>3915.5766</v>
       </c>
       <c r="V5" t="n">
-        <v>7349.932065999999</v>
+        <v>1766.457</v>
       </c>
       <c r="W5" t="n">
-        <v>1580</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1740</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>47822.13009</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>59810.48009</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>67159.52550039999</v>
+        <v>55885.7572</v>
       </c>
       <c r="U6" t="n">
-        <v>12060.4677</v>
+        <v>10076.95</v>
       </c>
       <c r="V6" t="n">
-        <v>6451.447486</v>
+        <v>5670.498</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>114581.4757</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>162994.5757</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>276577.3310102</v>
+        <v>55885.7572</v>
       </c>
       <c r="U7" t="n">
-        <v>45927.96032</v>
+        <v>10076.95</v>
       </c>
       <c r="V7" t="n">
-        <v>32652.9734684</v>
+        <v>5670.498</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>114581.4757</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>163177.5757</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>239129.1144842</v>
+        <v>56159.5255004</v>
       </c>
       <c r="U8" t="n">
-        <v>40453.59871999999</v>
+        <v>10120.4677</v>
       </c>
       <c r="V8" t="n">
-        <v>27871.6041764</v>
+        <v>5700.447486</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>114581.4757</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>746.2499749000001</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>163923.8256749</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251611.8533262</v>
+        <v>237091.8406</v>
       </c>
       <c r="U9" t="n">
-        <v>42278.38591999999</v>
+        <v>40428.12</v>
       </c>
       <c r="V9" t="n">
-        <v>29465.3939404</v>
+        <v>27839.2252</v>
       </c>
       <c r="W9" t="n">
         <v>2540</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2340</v>
+        <v>2160</v>
       </c>
       <c r="AA9" t="n">
         <v>3780</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>688439.4135</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>264094.5921682</v>
+        <v>238340.1144842</v>
       </c>
       <c r="U10" t="n">
-        <v>44103.17311999999</v>
+        <v>40610.59871999999</v>
       </c>
       <c r="V10" t="n">
-        <v>31059.1837044</v>
+        <v>27998.6041764</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2520</v>
+        <v>2160</v>
       </c>
       <c r="AA10" t="n">
         <v>3780</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3423.8061665</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>691863.2196665</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>276577.3310102</v>
+        <v>250822.8533262</v>
       </c>
       <c r="U11" t="n">
-        <v>45927.96032</v>
+        <v>42435.38591999999</v>
       </c>
       <c r="V11" t="n">
-        <v>32652.9734684</v>
+        <v>29592.3939404</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2700</v>
+        <v>2340</v>
       </c>
       <c r="AA11" t="n">
         <v>3780</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>37814.8678315</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>726254.2813315</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,24 +8181,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276577.3310102</v>
+        <v>263305.5921682</v>
       </c>
       <c r="U12" t="n">
-        <v>45927.96032</v>
+        <v>44260.17311999999</v>
       </c>
       <c r="V12" t="n">
-        <v>32652.9734684</v>
+        <v>31186.1837044</v>
       </c>
       <c r="W12" t="n">
-        <v>2460</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -7927,10 +8207,10 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2700</v>
+        <v>2520</v>
       </c>
       <c r="AA12" t="n">
-        <v>3720</v>
+        <v>3780</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>72205.9294965</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>760645.3429965</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,20 +8320,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>412094.503135</v>
+        <v>275788.3310102</v>
       </c>
       <c r="U13" t="n">
-        <v>68079.56307600001</v>
+        <v>46084.96032</v>
       </c>
       <c r="V13" t="n">
-        <v>55382.24353860001</v>
+        <v>32779.9734684</v>
       </c>
       <c r="W13" t="n">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8041,7 +8345,7 @@
         <v>2700</v>
       </c>
       <c r="AA13" t="n">
-        <v>3840</v>
+        <v>3780</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8050,25 +8354,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>106596.9911615</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>795036.4046614999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,20 +8455,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>412094.503135</v>
+        <v>275788.3310102</v>
       </c>
       <c r="U14" t="n">
-        <v>68079.56307600001</v>
+        <v>46084.96032</v>
       </c>
       <c r="V14" t="n">
-        <v>55382.24353860001</v>
+        <v>32779.9734684</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2460</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8152,7 +8480,7 @@
         <v>2700</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900</v>
+        <v>3720</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8161,25 +8489,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>519918.8135</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>106596.9911615</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>794853.4046614999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,20 +8590,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1005043.2670386</v>
+        <v>414594.503135</v>
       </c>
       <c r="U15" t="n">
-        <v>164928.225452</v>
+        <v>68887.56307600001</v>
       </c>
       <c r="V15" t="n">
-        <v>155834.7416</v>
+        <v>56156.24353860001</v>
       </c>
       <c r="W15" t="n">
-        <v>3020</v>
+        <v>2620</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8263,7 +8615,7 @@
         <v>2700</v>
       </c>
       <c r="AA15" t="n">
-        <v>4140</v>
+        <v>3840</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8272,25 +8624,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>801991.34375</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>164584.59495635</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1225777.08870635</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,20 +8725,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5218639.9720946</v>
+        <v>414594.503135</v>
       </c>
       <c r="U16" t="n">
-        <v>857993.1611936</v>
+        <v>68887.56307600001</v>
       </c>
       <c r="V16" t="n">
-        <v>789459.6486066001</v>
+        <v>56156.24353860001</v>
       </c>
       <c r="W16" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8374,7 +8750,7 @@
         <v>2700</v>
       </c>
       <c r="AA16" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8383,25 +8759,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>801991.34375</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>164584.59495635</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1225960.08870635</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,20 +8860,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8536650.2764493</v>
+        <v>1042538.2670386</v>
       </c>
       <c r="U17" t="n">
-        <v>1402170.3630944</v>
+        <v>171785.225452</v>
       </c>
       <c r="V17" t="n">
-        <v>1283233.4719912</v>
+        <v>162467.7416</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>3020</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8485,7 +8885,7 @@
         <v>2700</v>
       </c>
       <c r="AA17" t="n">
-        <v>5400</v>
+        <v>4140</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8494,58 +8894,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1841823.6416</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>378438.6952574</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3175920.8368574</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224649.9018131</v>
+        <v>5353516.9720946</v>
       </c>
       <c r="U18" t="n">
-        <v>41264.5443764</v>
+        <v>881721.1611936</v>
       </c>
       <c r="V18" t="n">
-        <v>25472.9293796</v>
+        <v>811299.6486066001</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>3660</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="AA18" t="n">
-        <v>2060</v>
+        <v>4620</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11214296.84959</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2300513.46422839</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16117704.96381839</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,34 +9116,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>305108.59819</v>
+        <v>8846368.2764493</v>
       </c>
       <c r="U19" t="n">
-        <v>53661.02259920001</v>
+        <v>1456203.3630944</v>
       </c>
       <c r="V19" t="n">
-        <v>36459.1619814</v>
+        <v>1332465.4719912</v>
       </c>
       <c r="W19" t="n">
-        <v>2460</v>
+        <v>4700</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -8704,10 +9152,10 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2340</v>
+        <v>2700</v>
       </c>
       <c r="AA19" t="n">
-        <v>3720</v>
+        <v>5400</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -8716,25 +9164,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18195077.00686</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3731976.18889006</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26573565.94575006</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>395785.2148398</v>
+        <v>213649.9018131</v>
       </c>
       <c r="U20" t="n">
-        <v>67021.33872699999</v>
+        <v>39324.5443764</v>
       </c>
       <c r="V20" t="n">
-        <v>52570.9933468</v>
+        <v>24721.9293796</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2520</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>548175.27226</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3594.87968296</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>632295.8519429599</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>459082.0962075</v>
+        <v>282008.59819</v>
       </c>
       <c r="U21" t="n">
-        <v>78788.28474799999</v>
+        <v>49587.02259920001</v>
       </c>
       <c r="V21" t="n">
-        <v>63555.0717577</v>
+        <v>34882.3619814</v>
       </c>
       <c r="W21" t="n">
-        <v>2700</v>
+        <v>1410</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2700</v>
+        <v>1530</v>
       </c>
       <c r="AA21" t="n">
-        <v>3900</v>
+        <v>2370</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>650794.6259300001</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>47240.55958753</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>832297.8855175301</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,34 +9521,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>529460.7263400001</v>
+        <v>395785.2148398</v>
       </c>
       <c r="U22" t="n">
-        <v>94802.951674</v>
+        <v>67021.33872699999</v>
       </c>
       <c r="V22" t="n">
-        <v>77713.4688418</v>
+        <v>52570.9933468</v>
       </c>
       <c r="W22" t="n">
-        <v>3020</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9037,10 +9557,10 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2700</v>
+        <v>2520</v>
       </c>
       <c r="AA22" t="n">
-        <v>4140</v>
+        <v>3780</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9049,25 +9569,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>825304.88375</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>114712.7300502</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1173139.6638002</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,20 +9670,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>673737.9329417</v>
+        <v>459082.0962075</v>
       </c>
       <c r="U23" t="n">
-        <v>127640.9916832</v>
+        <v>78788.28474799999</v>
       </c>
       <c r="V23" t="n">
-        <v>106449.6567698</v>
+        <v>63555.0717577</v>
       </c>
       <c r="W23" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9151,7 +9695,7 @@
         <v>2700</v>
       </c>
       <c r="AA23" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9160,25 +9704,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>901341.5532750001</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>185007.770300475</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1381305.923575475</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>529460.7263400001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>94802.951674</v>
+      </c>
+      <c r="V24" t="n">
+        <v>77713.4688418</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1021439.29565</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>209736.04308095</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1644328.53873095</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>20</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>673737.9329417</v>
+      </c>
+      <c r="U25" t="n">
+        <v>127640.9916832</v>
+      </c>
+      <c r="V25" t="n">
+        <v>106449.6567698</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2700</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1271239.51893</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>261130.78305213</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2181885.30198213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/20.xlsx
+++ b/opm_hero_property/heroes/20.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43291;31,8193;41,2746</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12290;41,4123</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6133;41,2061</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5244;31,981;41,383</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1472;41,576</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,734;41,288</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43291.11500000001</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8193.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2746.4555</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>12290.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4123.618</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>6133.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2061.809</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5244.26</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>981.6800000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>383.8651</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1472.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>576.3476000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>734.8576</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>288.1738</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43295;31,8194;41,2746</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,12292;41,4124</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6134;41,2062</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5248;31,982;41,384</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1474;41,576</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,735;41,288</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43295.42000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8194.690000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2746.8743</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>12292.035</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4124.2468</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6134.3108</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2062.1234</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5248.565000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>982.8700000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>384.2839</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>1474.305</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>576.9764</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>735.7484000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>288.4882</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,46271;31,9023;41,3158</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,13535;41,4742</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6755;41,2371</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5569;31,1072;41,429</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1608;41,645</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,802;41,322</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>46271.68824600001</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9023.939463000001</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3158.86139073</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>13535.9091945</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>4742.817675480001</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>6755.06325516</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2371.40883774</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5569.162767000001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1072.186731</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>429.83321969</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>1608.2800965</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>645.36563644</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>802.60835292</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>322.68281822</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49643;31,9964;41,3625</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,14946;41,5443</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,7459;41,2721</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5931;31,1173;41,481</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,1760;41,722</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,878;41,361</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49643.969403</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>9964.565345000003</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3625.47243284</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>14946.8480175</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5443.40273584</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>7459.188915400001</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2721.70136792</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5931.937693500001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1173.356765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>481.33712852</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>1760.0351475</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>722.6952875200001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>878.3413498</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>361.34764376</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53608;31,11069;41,4186</t>
+          <t>21,53608;31,11069;41,4174</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53608;31,11069;41,4186</t>
+          <t>21,0;31,16604;41,6267</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26804;31,5534;41,2093</t>
+          <t>21,0;31,8286;41,3133</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6358;31,1292;41,543</t>
+          <t>21,6358;31,1292;41,541</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6358;31,1292;41,543</t>
+          <t>21,0;31,1938;41,813</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3179;31,646;41,271</t>
+          <t>21,0;31,967;41,406</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53608</v>
+        <v>53608.508513</v>
       </c>
       <c r="O6" t="n">
-        <v>11069</v>
+        <v>11069.974629</v>
       </c>
       <c r="P6" t="n">
-        <v>4186</v>
+        <v>4174.40688625</v>
       </c>
       <c r="Q6" t="n">
-        <v>53608</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11069</v>
+        <v>16604.9619435</v>
       </c>
       <c r="S6" t="n">
-        <v>4186</v>
+        <v>6267.590855</v>
       </c>
       <c r="T6" t="n">
-        <v>26804</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5534</v>
+        <v>8286.666722280001</v>
       </c>
       <c r="V6" t="n">
-        <v>2093</v>
+        <v>3133.7954275</v>
       </c>
       <c r="W6" t="n">
-        <v>6358</v>
+        <v>6358.119288500001</v>
       </c>
       <c r="X6" t="n">
-        <v>1292</v>
+        <v>1292.189073</v>
       </c>
       <c r="Y6" t="n">
-        <v>543</v>
+        <v>541.92414625</v>
       </c>
       <c r="Z6" t="n">
-        <v>6358</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1292</v>
+        <v>1938.2836095</v>
       </c>
       <c r="AB6" t="n">
-        <v>543</v>
+        <v>813.6626150000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>3179</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>646</v>
+        <v>967.29582036</v>
       </c>
       <c r="AE6" t="n">
-        <v>271</v>
+        <v>406.8313075</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60040;31,12343;41,5336</t>
+          <t>21,60040;31,12343;41,5321</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60040;31,12343;41,5336</t>
+          <t>21,0;31,18515;41,7989</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30020;31,6171;41,2668</t>
+          <t>21,0;31,9240;41,3994</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7056;31,1430;41,671</t>
+          <t>21,7056;31,1430;41,669</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7056;31,1430;41,671</t>
+          <t>21,0;31,2145;41,1004</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3528;31,715;41,335</t>
+          <t>21,0;31,1070;41,502</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60040</v>
+        <v>60040.593802</v>
       </c>
       <c r="O7" t="n">
-        <v>12343</v>
+        <v>12343.566466</v>
       </c>
       <c r="P7" t="n">
-        <v>5336</v>
+        <v>5321.508922929999</v>
       </c>
       <c r="Q7" t="n">
-        <v>60040</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12343</v>
+        <v>18515.349699</v>
       </c>
       <c r="S7" t="n">
-        <v>5336</v>
+        <v>7989.88732268</v>
       </c>
       <c r="T7" t="n">
-        <v>30020</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6171</v>
+        <v>9240.041183120002</v>
       </c>
       <c r="V7" t="n">
-        <v>2668</v>
+        <v>3994.94366134</v>
       </c>
       <c r="W7" t="n">
-        <v>7056</v>
+        <v>7056.543529</v>
       </c>
       <c r="X7" t="n">
-        <v>1430</v>
+        <v>1430.640442</v>
       </c>
       <c r="Y7" t="n">
-        <v>671</v>
+        <v>669.33216629</v>
       </c>
       <c r="Z7" t="n">
-        <v>7056</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1430</v>
+        <v>2145.960663</v>
       </c>
       <c r="AB7" t="n">
-        <v>671</v>
+        <v>1004.95717804</v>
       </c>
       <c r="AC7" t="n">
-        <v>3528</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>715</v>
+        <v>1070.93655944</v>
       </c>
       <c r="AE7" t="n">
-        <v>335</v>
+        <v>502.4785890200001</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68350;31,13782;41,6927</t>
+          <t>21,68350;31,13782;41,6907</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68350;31,13782;41,6927</t>
+          <t>21,0;31,20673;41,10371</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34175;31,6891;41,3463</t>
+          <t>21,0;31,10316;41,5185</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7955;31,1586;41,847</t>
+          <t>21,7955;31,1586;41,845</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7955;31,1586;41,847</t>
+          <t>21,0;31,2379;41,1268</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3977;31,793;41,423</t>
+          <t>21,0;31,1187;41,634</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68350</v>
+        <v>68350.835798</v>
       </c>
       <c r="O8" t="n">
-        <v>13782</v>
+        <v>13782.0837805</v>
       </c>
       <c r="P8" t="n">
-        <v>6927</v>
+        <v>6907.78787603</v>
       </c>
       <c r="Q8" t="n">
-        <v>68350</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13782</v>
+        <v>20673.12567075</v>
       </c>
       <c r="S8" t="n">
-        <v>6927</v>
+        <v>10371.57835828</v>
       </c>
       <c r="T8" t="n">
-        <v>34175</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6891</v>
+        <v>10316.87414426</v>
       </c>
       <c r="V8" t="n">
-        <v>3463</v>
+        <v>5185.78917914</v>
       </c>
       <c r="W8" t="n">
-        <v>7955</v>
+        <v>7955.258171</v>
       </c>
       <c r="X8" t="n">
-        <v>1586</v>
+        <v>1586.1749785</v>
       </c>
       <c r="Y8" t="n">
-        <v>847</v>
+        <v>845.1446505900001</v>
       </c>
       <c r="Z8" t="n">
-        <v>7955</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1586</v>
+        <v>2379.26246775</v>
       </c>
       <c r="AB8" t="n">
-        <v>847</v>
+        <v>1268.92778484</v>
       </c>
       <c r="AC8" t="n">
-        <v>3977</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>793</v>
+        <v>1187.36526962</v>
       </c>
       <c r="AE8" t="n">
-        <v>423</v>
+        <v>634.4638924200001</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79036;31,15440;41,9068</t>
+          <t>21,79036;31,15440;41,9042</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79036;31,15440;41,9068</t>
+          <t>21,0;31,23160;41,13576</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39518;31,7720;41,4534</t>
+          <t>21,0;31,11558;41,6788</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9106;31,1764;41,1084</t>
+          <t>21,9106;31,1764;41,1081</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9106;31,1764;41,1084</t>
+          <t>21,0;31,2646;41,1623</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4553;31,882;41,542</t>
+          <t>21,0;31,1320;41,811</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79036</v>
+        <v>79036.70026000001</v>
       </c>
       <c r="O9" t="n">
-        <v>15440</v>
+        <v>15440.4077065</v>
       </c>
       <c r="P9" t="n">
-        <v>9068</v>
+        <v>9042.652282540001</v>
       </c>
       <c r="Q9" t="n">
-        <v>79036</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15440</v>
+        <v>23160.61155975</v>
       </c>
       <c r="S9" t="n">
-        <v>9068</v>
+        <v>13576.93351304</v>
       </c>
       <c r="T9" t="n">
-        <v>39518</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7720</v>
+        <v>11558.24805458</v>
       </c>
       <c r="V9" t="n">
-        <v>4534</v>
+        <v>6788.466756520001</v>
       </c>
       <c r="W9" t="n">
-        <v>9106</v>
+        <v>9106.58077</v>
       </c>
       <c r="X9" t="n">
-        <v>1764</v>
+        <v>1764.6334405</v>
       </c>
       <c r="Y9" t="n">
-        <v>1084</v>
+        <v>1081.19515262</v>
       </c>
       <c r="Z9" t="n">
-        <v>9106</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1764</v>
+        <v>2646.95016075</v>
       </c>
       <c r="AB9" t="n">
-        <v>1084</v>
+        <v>1623.34171912</v>
       </c>
       <c r="AC9" t="n">
-        <v>4553</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>882</v>
+        <v>1320.95417546</v>
       </c>
       <c r="AE9" t="n">
-        <v>542</v>
+        <v>811.6708595600001</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87048;31,16325;41,10851</t>
+          <t>21,87048;31,16325;41,10820</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87048;31,16325;41,10851</t>
+          <t>21,0;31,24487;41,16246</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43524;31,8162;41,5425</t>
+          <t>21,0;31,12220;41,8123</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9969;31,1859;41,1281</t>
+          <t>21,9969;31,1859;41,1277</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9969;31,1859;41,1281</t>
+          <t>21,0;31,2789;41,1918</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4984;31,929;41,640</t>
+          <t>21,0;31,1392;41,959</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87048</v>
+        <v>87048.952193</v>
       </c>
       <c r="O10" t="n">
-        <v>16325</v>
+        <v>16325.240379</v>
       </c>
       <c r="P10" t="n">
-        <v>10851</v>
+        <v>10820.48868393</v>
       </c>
       <c r="Q10" t="n">
-        <v>87048</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16325</v>
+        <v>24487.8605685</v>
       </c>
       <c r="S10" t="n">
-        <v>10851</v>
+        <v>16246.23515868</v>
       </c>
       <c r="T10" t="n">
-        <v>43524</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8162</v>
+        <v>12220.60851228</v>
       </c>
       <c r="V10" t="n">
-        <v>5425</v>
+        <v>8123.117579340001</v>
       </c>
       <c r="W10" t="n">
-        <v>9969</v>
+        <v>9969.828648500001</v>
       </c>
       <c r="X10" t="n">
-        <v>1859</v>
+        <v>1859.771823</v>
       </c>
       <c r="Y10" t="n">
-        <v>1281</v>
+        <v>1277.74979929</v>
       </c>
       <c r="Z10" t="n">
-        <v>9969</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1859</v>
+        <v>2789.6577345</v>
       </c>
       <c r="AB10" t="n">
-        <v>1281</v>
+        <v>1918.45528604</v>
       </c>
       <c r="AC10" t="n">
-        <v>4984</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>929</v>
+        <v>1392.17205036</v>
       </c>
       <c r="AE10" t="n">
-        <v>640</v>
+        <v>959.2276430200001</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,96816;31,17375;41,13040</t>
+          <t>21,96816;31,17375;41,13003</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,96816;31,17375;41,13040</t>
+          <t>21,0;31,26063;41,19523</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48408;31,8687;41,6520</t>
+          <t>21,0;31,13006;41,9761</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11020;31,1972;41,1523</t>
+          <t>21,11020;31,1972;41,1518</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11020;31,1972;41,1523</t>
+          <t>21,0;31,2958;41,2280</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5510;31,986;41,761</t>
+          <t>21,0;31,1476;41,1140</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>96816</v>
+        <v>96816.44385000001</v>
       </c>
       <c r="O11" t="n">
-        <v>17375</v>
+        <v>17375.523529</v>
       </c>
       <c r="P11" t="n">
-        <v>13040</v>
+        <v>13003.16918607</v>
       </c>
       <c r="Q11" t="n">
-        <v>96816</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17375</v>
+        <v>26063.2852935</v>
       </c>
       <c r="S11" t="n">
-        <v>13040</v>
+        <v>19523.38296132</v>
       </c>
       <c r="T11" t="n">
-        <v>48408</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8687</v>
+        <v>13006.82047028</v>
       </c>
       <c r="V11" t="n">
-        <v>6520</v>
+        <v>9761.69148066</v>
       </c>
       <c r="W11" t="n">
-        <v>11020</v>
+        <v>11020.785825</v>
       </c>
       <c r="X11" t="n">
-        <v>1972</v>
+        <v>1972.518373</v>
       </c>
       <c r="Y11" t="n">
-        <v>1523</v>
+        <v>1518.85351071</v>
       </c>
       <c r="Z11" t="n">
-        <v>11020</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1972</v>
+        <v>2958.7775595</v>
       </c>
       <c r="AB11" t="n">
-        <v>1523</v>
+        <v>2280.45627396</v>
       </c>
       <c r="AC11" t="n">
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>986</v>
+        <v>1476.57089636</v>
       </c>
       <c r="AE11" t="n">
-        <v>761</v>
+        <v>1140.22813698</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,114817;31,19586;41,16935</t>
+          <t>21,114817;31,19586;41,16887</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,114817;31,19586;41,16935</t>
+          <t>21,0;31,29379;41,25355</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,57408;31,9793;41,8467</t>
+          <t>21,0;31,14662;41,12677</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12955;31,2209;41,1953</t>
+          <t>21,12955;31,2209;41,1947</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12955;31,2209;41,1953</t>
+          <t>21,0;31,3314;41,2924</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6477;31,1104;41,976</t>
+          <t>21,0;31,1654;41,1462</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>114817</v>
+        <v>114817.932271</v>
       </c>
       <c r="O12" t="n">
-        <v>19586</v>
+        <v>19586.6591725</v>
       </c>
       <c r="P12" t="n">
-        <v>16935</v>
+        <v>16887.59826828</v>
       </c>
       <c r="Q12" t="n">
-        <v>114817</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19586</v>
+        <v>29379.98875875</v>
       </c>
       <c r="S12" t="n">
-        <v>16935</v>
+        <v>25355.59166928</v>
       </c>
       <c r="T12" t="n">
-        <v>57408</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9793</v>
+        <v>14662.0134377</v>
       </c>
       <c r="V12" t="n">
-        <v>8467</v>
+        <v>12677.79583464</v>
       </c>
       <c r="W12" t="n">
-        <v>12955</v>
+        <v>12955.0873795</v>
       </c>
       <c r="X12" t="n">
-        <v>2209</v>
+        <v>2209.7788825</v>
       </c>
       <c r="Y12" t="n">
-        <v>1953</v>
+        <v>1947.52161484</v>
       </c>
       <c r="Z12" t="n">
-        <v>12955</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2209</v>
+        <v>3314.66832375</v>
       </c>
       <c r="AB12" t="n">
-        <v>1953</v>
+        <v>2924.07256784</v>
       </c>
       <c r="AC12" t="n">
-        <v>6477</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1104</v>
+        <v>1654.1773349</v>
       </c>
       <c r="AE12" t="n">
-        <v>976</v>
+        <v>1462.03628392</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,117603;31,20031;41,17488</t>
+          <t>21,117603;31,20031;41,17438</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,117603;31,20031;41,17488</t>
+          <t>21,0;31,30046;41,26182</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,58801;31,10015;41,8744</t>
+          <t>21,0;31,14994;41,13091</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13263;31,2259;41,2015</t>
+          <t>21,13263;31,2259;41,2009</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13263;31,2259;41,2015</t>
+          <t>21,0;31,3388;41,3017</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6631;31,1129;41,1007</t>
+          <t>21,0;31,1691;41,1508</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>117603</v>
+        <v>117603.567648</v>
       </c>
       <c r="O13" t="n">
-        <v>20031</v>
+        <v>20031.1065465</v>
       </c>
       <c r="P13" t="n">
-        <v>17488</v>
+        <v>17438.26385592</v>
       </c>
       <c r="Q13" t="n">
-        <v>117603</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20031</v>
+        <v>30046.65981975</v>
       </c>
       <c r="S13" t="n">
-        <v>17488</v>
+        <v>26182.37896992</v>
       </c>
       <c r="T13" t="n">
-        <v>58801</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>10015</v>
+        <v>14994.71404338</v>
       </c>
       <c r="V13" t="n">
-        <v>8744</v>
+        <v>13091.18948496</v>
       </c>
       <c r="W13" t="n">
-        <v>13263</v>
+        <v>13263.872496</v>
       </c>
       <c r="X13" t="n">
-        <v>2259</v>
+        <v>2259.0185205</v>
       </c>
       <c r="Y13" t="n">
-        <v>2015</v>
+        <v>2009.60350776</v>
       </c>
       <c r="Z13" t="n">
-        <v>13263</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2259</v>
+        <v>3388.52778075</v>
       </c>
       <c r="AB13" t="n">
-        <v>2015</v>
+        <v>3017.28434976</v>
       </c>
       <c r="AC13" t="n">
-        <v>6631</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1129</v>
+        <v>1691.03672106</v>
       </c>
       <c r="AE13" t="n">
-        <v>1007</v>
+        <v>1508.64217488</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,120389;31,20474;41,18040</t>
+          <t>21,120389;31,20474;41,17988</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,120389;31,20474;41,18040</t>
+          <t>21,0;31,30712;41,27008</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60194;31,10237;41,9020</t>
+          <t>21,0;31,15326;41,13504</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13572;31,2308;41,2077</t>
+          <t>21,13572;31,2308;41,2071</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13572;31,2308;41,2077</t>
+          <t>21,0;31,3462;41,3110</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6786;31,1154;41,1038</t>
+          <t>21,0;31,1727;41,1555</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>120389</v>
+        <v>120389.203025</v>
       </c>
       <c r="O14" t="n">
-        <v>20474</v>
+        <v>20474.781845</v>
       </c>
       <c r="P14" t="n">
-        <v>18040</v>
+        <v>17988.69900933</v>
       </c>
       <c r="Q14" t="n">
-        <v>120389</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20474</v>
+        <v>30712.1727675</v>
       </c>
       <c r="S14" t="n">
-        <v>18040</v>
+        <v>27008.82028908</v>
       </c>
       <c r="T14" t="n">
-        <v>60194</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10237</v>
+        <v>15326.8366954</v>
       </c>
       <c r="V14" t="n">
-        <v>9020</v>
+        <v>13504.41014454</v>
       </c>
       <c r="W14" t="n">
-        <v>13572</v>
+        <v>13572.6576125</v>
       </c>
       <c r="X14" t="n">
-        <v>2308</v>
+        <v>2308.207265</v>
       </c>
       <c r="Y14" t="n">
-        <v>2077</v>
+        <v>2071.69122549</v>
       </c>
       <c r="Z14" t="n">
-        <v>13572</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2308</v>
+        <v>3462.3108975</v>
       </c>
       <c r="AB14" t="n">
-        <v>2077</v>
+        <v>3110.50487724</v>
       </c>
       <c r="AC14" t="n">
-        <v>6786</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1154</v>
+        <v>1727.8580098</v>
       </c>
       <c r="AE14" t="n">
-        <v>1038</v>
+        <v>1555.25243862</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,123179;31,20918;41,18592</t>
+          <t>21,123179;31,20918;41,18539</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,123179;31,20918;41,18592</t>
+          <t>21,0;31,31377;41,27835</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,61589;31,10459;41,9296</t>
+          <t>21,0;31,15658;41,13917</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13881;31,2357;41,2139</t>
+          <t>21,13881;31,2357;41,2133</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13881;31,2357;41,2139</t>
+          <t>21,0;31,3536;41,3203</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6940;31,1178;41,1069</t>
+          <t>21,0;31,1764;41,1601</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>123179</v>
+        <v>123179.096229</v>
       </c>
       <c r="O15" t="n">
-        <v>20918</v>
+        <v>20918.4221435</v>
       </c>
       <c r="P15" t="n">
-        <v>18592</v>
+        <v>18539.36459697</v>
       </c>
       <c r="Q15" t="n">
-        <v>123179</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20918</v>
+        <v>31377.63321525</v>
       </c>
       <c r="S15" t="n">
-        <v>18592</v>
+        <v>27835.60758972</v>
       </c>
       <c r="T15" t="n">
-        <v>61589</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10459</v>
+        <v>15658.93314742</v>
       </c>
       <c r="V15" t="n">
-        <v>9296</v>
+        <v>13917.80379486</v>
       </c>
       <c r="W15" t="n">
-        <v>13881</v>
+        <v>13881.8958705</v>
       </c>
       <c r="X15" t="n">
-        <v>2357</v>
+        <v>2357.3610095</v>
       </c>
       <c r="Y15" t="n">
-        <v>2139</v>
+        <v>2133.77311841</v>
       </c>
       <c r="Z15" t="n">
-        <v>13881</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2357</v>
+        <v>3536.04151425</v>
       </c>
       <c r="AB15" t="n">
-        <v>2139</v>
+        <v>3203.71665916</v>
       </c>
       <c r="AC15" t="n">
-        <v>6940</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1178</v>
+        <v>1764.65309854</v>
       </c>
       <c r="AE15" t="n">
-        <v>1069</v>
+        <v>1601.85832958</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,125964;31,21362;41,19144</t>
+          <t>21,125964;31,21362;41,19089</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,125964;31,21362;41,19144</t>
+          <t>21,0;31,32044;41,28662</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,62982;31,10681;41,9572</t>
+          <t>21,0;31,15991;41,14331</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14190;31,2406;41,2202</t>
+          <t>21,14190;31,2406;41,2195</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14190;31,2406;41,2202</t>
+          <t>21,0;31,3609;41,3296</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7095;31,1203;41,1101</t>
+          <t>21,0;31,1801;41,1648</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>125964</v>
+        <v>125964.696606</v>
       </c>
       <c r="O16" t="n">
-        <v>21362</v>
+        <v>21362.8695175</v>
       </c>
       <c r="P16" t="n">
-        <v>19144</v>
+        <v>19089.79975038</v>
       </c>
       <c r="Q16" t="n">
-        <v>125964</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21362</v>
+        <v>32044.30427625</v>
       </c>
       <c r="S16" t="n">
-        <v>19144</v>
+        <v>28662.04890888</v>
       </c>
       <c r="T16" t="n">
-        <v>62982</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10681</v>
+        <v>15991.6337531</v>
       </c>
       <c r="V16" t="n">
-        <v>9572</v>
+        <v>14331.02445444</v>
       </c>
       <c r="W16" t="n">
-        <v>14190</v>
+        <v>14190.645987</v>
       </c>
       <c r="X16" t="n">
-        <v>2406</v>
+        <v>2406.6006475</v>
       </c>
       <c r="Y16" t="n">
-        <v>2202</v>
+        <v>2195.86083614</v>
       </c>
       <c r="Z16" t="n">
-        <v>14190</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2406</v>
+        <v>3609.90097125</v>
       </c>
       <c r="AB16" t="n">
-        <v>2202</v>
+        <v>3296.93718664</v>
       </c>
       <c r="AC16" t="n">
-        <v>7095</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1203</v>
+        <v>1801.5124847</v>
       </c>
       <c r="AE16" t="n">
-        <v>1101</v>
+        <v>1648.46859332</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,128750;31,21806;41,19696</t>
+          <t>21,128750;31,21806;41,19640</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,128750;31,21806;41,19696</t>
+          <t>21,0;31,32709;41,29488</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,64375;31,10903;41,9848</t>
+          <t>21,0;31,16323;41,14744</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14499;31,2455;41,2264</t>
+          <t>21,14499;31,2455;41,2257</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14499;31,2455;41,2264</t>
+          <t>21,0;31,3683;41,3390</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7249;31,1227;41,1132</t>
+          <t>21,0;31,1838;41,1695</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>128750</v>
+        <v>128750.331983</v>
       </c>
       <c r="O17" t="n">
-        <v>21806</v>
+        <v>21806.509816</v>
       </c>
       <c r="P17" t="n">
-        <v>19696</v>
+        <v>19640.46533802</v>
       </c>
       <c r="Q17" t="n">
-        <v>128750</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21806</v>
+        <v>32709.764724</v>
       </c>
       <c r="S17" t="n">
-        <v>19696</v>
+        <v>29488.83620952</v>
       </c>
       <c r="T17" t="n">
-        <v>64375</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10903</v>
+        <v>16323.73020512</v>
       </c>
       <c r="V17" t="n">
-        <v>9848</v>
+        <v>14744.41810476</v>
       </c>
       <c r="W17" t="n">
-        <v>14499</v>
+        <v>14499.4311035</v>
       </c>
       <c r="X17" t="n">
-        <v>2455</v>
+        <v>2455.754392</v>
       </c>
       <c r="Y17" t="n">
-        <v>2264</v>
+        <v>2257.94272906</v>
       </c>
       <c r="Z17" t="n">
-        <v>14499</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2455</v>
+        <v>3683.631588</v>
       </c>
       <c r="AB17" t="n">
-        <v>2264</v>
+        <v>3390.14896856</v>
       </c>
       <c r="AC17" t="n">
-        <v>7249</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1227</v>
+        <v>1838.30757344</v>
       </c>
       <c r="AE17" t="n">
-        <v>1132</v>
+        <v>1695.07448428</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7541</v>
+        <v>7210</v>
       </c>
       <c r="C2" t="n">
-        <v>1414</v>
+        <v>1221</v>
       </c>
       <c r="D2" t="n">
-        <v>822</v>
+        <v>1103</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -5122,52 +5122,52 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7541</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1414</v>
+        <v>1800</v>
       </c>
       <c r="J2" t="n">
-        <v>822</v>
+        <v>1626</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N2" t="n">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>707</v>
+        <v>900</v>
       </c>
       <c r="P2" t="n">
-        <v>411</v>
+        <v>813</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3688</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>685</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>439</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -5176,72 +5176,72 @@
         <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1011</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>648</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>505</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7541;31,1414;41,822;22,40;32,40;42,40</t>
+          <t>21,7210;31,1221;41,1103;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7541;31,1414;41,822;22,40;32,40;42,40</t>
+          <t>21,0;31,1800;41,1626;22,0;32,60;42,59</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3770;31,707;41,411;22,20;32,20;42,20</t>
+          <t>21,0;31,900;41,813;22,0;32,30;42,29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3688;31,685;41,439;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1011;41,648;22,0;32,52;42,52</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,505;41,324;22,0;32,25;42,25</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15183</v>
+        <v>14420</v>
       </c>
       <c r="C3" t="n">
-        <v>2714</v>
+        <v>2442</v>
       </c>
       <c r="D3" t="n">
-        <v>1764</v>
+        <v>2206</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5265,52 +5265,52 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>15183</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2714</v>
+        <v>3601</v>
       </c>
       <c r="J3" t="n">
-        <v>1764</v>
+        <v>3253</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="N3" t="n">
-        <v>7591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1357</v>
+        <v>1800</v>
       </c>
       <c r="P3" t="n">
-        <v>882</v>
+        <v>1626</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4251</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>759</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>546</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -5319,72 +5319,72 @@
         <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1120</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>806</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>560</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15183;31,2714;41,1764;22,80;32,80;42,80</t>
+          <t>21,14420;31,2442;41,2206;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15183;31,2714;41,1764;22,80;32,80;42,80</t>
+          <t>21,0;31,3601;41,3253;22,0;32,120;42,119</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7591;31,1357;41,882;22,40;32,40;42,40</t>
+          <t>21,0;31,1800;41,1626;22,0;32,60;42,59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4251;31,759;41,546;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,1120;41,806;22,0;32,105;42,104</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,560;41,403;22,0;32,52;42,52</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22698</v>
+        <v>21630</v>
       </c>
       <c r="C4" t="n">
-        <v>3873</v>
+        <v>3663</v>
       </c>
       <c r="D4" t="n">
-        <v>2869</v>
+        <v>3309</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -5408,52 +5408,52 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>22698</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3873</v>
+        <v>5402</v>
       </c>
       <c r="J4" t="n">
-        <v>2869</v>
+        <v>4879</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="N4" t="n">
-        <v>11349</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1936</v>
+        <v>2700</v>
       </c>
       <c r="P4" t="n">
-        <v>1434</v>
+        <v>2439</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5209</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>888</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>734</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -5462,72 +5462,72 @@
         <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1310</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>1082</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>655</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22698;31,3873;41,2869;22,120;32,120;42,120</t>
+          <t>21,21630;31,3663;41,3309;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22698;31,3873;41,2869;22,120;32,120;42,120</t>
+          <t>21,0;31,5402;41,4879;22,0;32,180;42,179</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11349;31,1936;41,1434;22,60;32,60;42,60</t>
+          <t>21,0;31,2700;41,2439;22,0;32,90;42,89</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5209;31,888;41,734;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,1310;41,1082;22,0;32,157;42,157</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,655;41,541;22,0;32,78;42,77</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30195</v>
+        <v>28840</v>
       </c>
       <c r="C5" t="n">
-        <v>5143</v>
+        <v>4884</v>
       </c>
       <c r="D5" t="n">
-        <v>3863</v>
+        <v>4412</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -5551,52 +5551,52 @@
         <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>30195</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5143</v>
+        <v>7202</v>
       </c>
       <c r="J5" t="n">
-        <v>3863</v>
+        <v>6506</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="N5" t="n">
-        <v>15097</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2571</v>
+        <v>3601</v>
       </c>
       <c r="P5" t="n">
-        <v>1931</v>
+        <v>3252</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5585</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>951</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -5605,72 +5605,72 @@
         <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1402</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>1179</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>701</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>589</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,30195;31,5143;41,3863;22,160;32,160;42,160</t>
+          <t>21,28840;31,4884;41,4412;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,30195;31,5143;41,3863;22,160;32,160;42,160</t>
+          <t>21,0;31,7202;41,6506;22,0;32,240;42,239</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15097;31,2571;41,1931;22,80;32,80;42,80</t>
+          <t>21,0;31,3601;41,3252;22,0;32,120;42,119</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5585;31,951;41,799;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,1402;41,1179;22,0;32,210;42,209</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,701;41,589;22,0;32,105;42,104</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37664</v>
+        <v>36050</v>
       </c>
       <c r="C6" t="n">
-        <v>6404</v>
+        <v>6105</v>
       </c>
       <c r="D6" t="n">
-        <v>4876</v>
+        <v>5515</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -5694,52 +5694,52 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>37664</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6404</v>
+        <v>9003</v>
       </c>
       <c r="J6" t="n">
-        <v>4876</v>
+        <v>8132</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="N6" t="n">
-        <v>18832</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3202</v>
+        <v>4501</v>
       </c>
       <c r="P6" t="n">
-        <v>2438</v>
+        <v>4066</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>5986</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1018</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>870</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -5748,72 +5748,72 @@
         <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1501</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>1283</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>750</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>641</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,37664;31,6404;41,4876;22,200;32,200;42,200</t>
+          <t>21,36050;31,6105;41,5515;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,37664;31,6404;41,4876;22,200;32,200;42,200</t>
+          <t>21,0;31,9003;41,8132;22,0;32,300;42,299</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18832;31,3202;41,2438;22,100;32,100;42,100</t>
+          <t>21,0;31,4501;41,4066;22,0;32,150;42,149</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,5986;31,1018;41,870;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,1501;41,1283;22,0;32,262;42,262</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,750;41,641;22,0;32,130;42,130</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43917</v>
+        <v>43260</v>
       </c>
       <c r="C7" t="n">
-        <v>7457</v>
+        <v>7326</v>
       </c>
       <c r="D7" t="n">
-        <v>6325</v>
+        <v>6618</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -5837,52 +5837,52 @@
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>43917</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7457</v>
+        <v>10804</v>
       </c>
       <c r="J7" t="n">
-        <v>6325</v>
+        <v>9759</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="N7" t="n">
-        <v>21958</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3728</v>
+        <v>5401</v>
       </c>
       <c r="P7" t="n">
-        <v>3162</v>
+        <v>4879</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6413</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1089</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>945</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -5891,72 +5891,72 @@
         <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1606</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>1394</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>803</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>697</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,43917;31,7457;41,6325;22,240;32,240;42,240</t>
+          <t>21,43260;31,7326;41,6618;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,43917;31,7457;41,6325;22,240;32,240;42,240</t>
+          <t>21,0;31,10804;41,9759;22,0;32,360;42,359</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21958;31,3728;41,3162;22,120;32,120;42,120</t>
+          <t>21,0;31,5401;41,4879;22,0;32,180;42,179</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6413;31,1089;41,945;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,1606;41,1394;22,0;32,315;42,314</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,803;41,697;22,0;32,157;42,157</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50153</v>
+        <v>50470</v>
       </c>
       <c r="C8" t="n">
-        <v>8505</v>
+        <v>8547</v>
       </c>
       <c r="D8" t="n">
-        <v>7783</v>
+        <v>7720</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -5980,52 +5980,52 @@
         <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>50153</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8505</v>
+        <v>12604</v>
       </c>
       <c r="J8" t="n">
-        <v>7783</v>
+        <v>11385</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="N8" t="n">
-        <v>25076</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4252</v>
+        <v>6302</v>
       </c>
       <c r="P8" t="n">
-        <v>3891</v>
+        <v>5692</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6867</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -6034,72 +6034,72 @@
         <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1717</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>1513</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>858</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>756</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,50153;31,8505;41,7783;22,280;32,280;42,280</t>
+          <t>21,50470;31,8547;41,7720;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,50153;31,8505;41,7783;22,280;32,280;42,280</t>
+          <t>21,0;31,12604;41,11385;22,0;32,420;42,419</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25076;31,4252;41,3891;22,140;32,140;42,140</t>
+          <t>21,0;31,6302;41,5692;22,0;32,210;42,209</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6867;31,1164;41,1026;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,1717;41,1513;22,0;32,367;42,367</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,858;41,756;22,0;32,183;42,182</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56867</v>
+        <v>57680</v>
       </c>
       <c r="C9" t="n">
-        <v>9631</v>
+        <v>9768</v>
       </c>
       <c r="D9" t="n">
-        <v>9074</v>
+        <v>8824</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -6123,52 +6123,52 @@
         <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>56867</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9631</v>
+        <v>14405</v>
       </c>
       <c r="J9" t="n">
-        <v>9074</v>
+        <v>13012</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="N9" t="n">
-        <v>28433</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4815</v>
+        <v>7202</v>
       </c>
       <c r="P9" t="n">
-        <v>4537</v>
+        <v>6505</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7630</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -6177,72 +6177,72 @@
         <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>1905</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>1715</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>952</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>857</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,56867;31,9631;41,9074;22,315;32,315;42,315</t>
+          <t>21,57680;31,9768;41,8824;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,56867;31,9631;41,9074;22,315;32,315;42,315</t>
+          <t>21,0;31,14405;41,13012;22,0;32,472;42,472</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28433;31,4815;41,4537;22,157;32,157;42,157</t>
+          <t>21,0;31,7202;41,6505;22,0;32,235;42,235</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7630;31,1292;41,1163;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,1905;41,1715;22,0;32,420;42,419</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,952;41,857;22,0;32,210;42,209</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>64546</v>
+        <v>64890</v>
       </c>
       <c r="C10" t="n">
-        <v>10932</v>
+        <v>10989</v>
       </c>
       <c r="D10" t="n">
-        <v>9994</v>
+        <v>9927</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -6266,52 +6266,52 @@
         <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>64546</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10932</v>
+        <v>16206</v>
       </c>
       <c r="J10" t="n">
-        <v>9994</v>
+        <v>14638</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="N10" t="n">
-        <v>32273</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5466</v>
+        <v>8102</v>
       </c>
       <c r="P10" t="n">
-        <v>4997</v>
+        <v>7318</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8261</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1275</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -6320,72 +6320,72 @@
         <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>2063</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>1880</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>1031</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>940</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,64546;31,10932;41,9994;22,335;32,335;42,335</t>
+          <t>21,64890;31,10989;41,9927;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,64546;31,10932;41,9994;22,335;32,335;42,335</t>
+          <t>21,0;31,16206;41,14638;22,0;32,502;42,502</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,32273;31,5466;41,4997;22,167;32,167;42,167</t>
+          <t>21,0;31,8102;41,7318;22,0;32,250;42,250</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8261;31,1399;41,1275;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,2063;41,1880;22,0;32,472;42,472</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,1031;41,940;22,0;32,235;42,235</t>
         </is>
       </c>
     </row>
@@ -6409,52 +6409,52 @@
         <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>72100</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12211</v>
+        <v>18007</v>
       </c>
       <c r="J11" t="n">
-        <v>11030</v>
+        <v>16265</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="N11" t="n">
-        <v>36050</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6105</v>
+        <v>9003</v>
       </c>
       <c r="P11" t="n">
-        <v>5515</v>
+        <v>8132</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>8906</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1508</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1390</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -6463,72 +6463,72 @@
         <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2224</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>2051</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1112</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>1025</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,72100;31,12211;41,11030;22,350;32,350;42,350</t>
+          <t>21,72100;31,12211;41,11030;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,72100;31,12211;41,11030;22,350;32,350;42,350</t>
+          <t>21,0;31,18007;41,16265;22,0;32,525;42,524</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,36050;31,6105;41,5515;22,175;32,175;42,175</t>
+          <t>21,0;31,9003;41,8132;22,0;32,262;42,262</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,8906;31,1508;41,1390;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,2224;41,2051;22,0;32,525;42,524</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,1112;41,1025;22,0;32,262;42,262</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5353516.9720946</v>
+        <v>5554367.3040776</v>
       </c>
       <c r="U2" t="n">
-        <v>881721.1611936</v>
+        <v>915738.6710096</v>
       </c>
       <c r="V2" t="n">
-        <v>811299.6486066001</v>
+        <v>841970.1139446201</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,50716;41,45753</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,25326;41,22876</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11214296.84959</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>611926.3254070149</v>
       </c>
       <c r="AS2" t="n">
-        <v>16117704.96381839</v>
+        <v>16729631.28922541</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>673737.9329417</v>
+        <v>697143.3640451999</v>
       </c>
       <c r="U3" t="n">
-        <v>127640.9916832</v>
+        <v>131604.7460752</v>
       </c>
       <c r="V3" t="n">
-        <v>106449.6567698</v>
+        <v>110097.59949886</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,5907;41,5441</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,2950;41,2720</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1271239.51893</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>71731.007100395</v>
       </c>
       <c r="AS3" t="n">
-        <v>2181885.30198213</v>
+        <v>2253616.309082525</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55885.7572</v>
+        <v>63252.1962288</v>
       </c>
       <c r="U7" t="n">
-        <v>10076.95</v>
+        <v>11326.9618</v>
       </c>
       <c r="V7" t="n">
-        <v>5670.498</v>
+        <v>6790.1841422</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,1843;41,1651</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,921;41,825</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>114581.4757</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>22429.71576645</v>
       </c>
       <c r="AS7" t="n">
-        <v>163177.5757</v>
+        <v>185607.29146645</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>56159.5255004</v>
+        <v>70892.40355800001</v>
       </c>
       <c r="U8" t="n">
-        <v>10120.4677</v>
+        <v>12620.4913</v>
       </c>
       <c r="V8" t="n">
-        <v>5700.447486</v>
+        <v>7940.2476202</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,3688;41,3303</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,1843;41,1651</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>114581.4757</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>44861.89166925001</v>
       </c>
       <c r="AS8" t="n">
-        <v>163923.8256749</v>
+        <v>208785.71734415</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>238340.1144842</v>
+        <v>246263.4138466</v>
       </c>
       <c r="U10" t="n">
-        <v>40610.59871999999</v>
+        <v>41953.25119999999</v>
       </c>
       <c r="V10" t="n">
-        <v>27998.6041764</v>
+        <v>29190.40103468</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,1982;41,1760</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,991;41,879</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>519918.8135</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24040.43340951</v>
       </c>
       <c r="AS10" t="n">
-        <v>691863.2196665</v>
+        <v>715903.6530760098</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>250822.8533262</v>
+        <v>290439.3501382</v>
       </c>
       <c r="U11" t="n">
-        <v>42435.38591999999</v>
+        <v>49148.64831999999</v>
       </c>
       <c r="V11" t="n">
-        <v>29592.3939404</v>
+        <v>35560.48560188</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,9915;41,8812</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,4957;41,4405</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>519918.8135</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>120254.53442551</v>
       </c>
       <c r="AS11" t="n">
-        <v>726254.2813315</v>
+        <v>846508.81575701</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263305.5921682</v>
+        <v>302922.0889802</v>
       </c>
       <c r="U12" t="n">
-        <v>44260.17311999999</v>
+        <v>50973.43551999999</v>
       </c>
       <c r="V12" t="n">
-        <v>31186.1837044</v>
+        <v>37154.27536588</v>
       </c>
       <c r="W12" t="n">
         <v>2540</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,9915;41,8812</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,4957;41,4405</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>519918.8135</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>120254.53442551</v>
       </c>
       <c r="AS12" t="n">
-        <v>760645.3429965</v>
+        <v>880899.8774220101</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>275788.3310102</v>
+        <v>354129.7004312</v>
       </c>
       <c r="U13" t="n">
-        <v>46084.96032</v>
+        <v>59360.41952</v>
       </c>
       <c r="V13" t="n">
-        <v>32779.9734684</v>
+        <v>44604.59150788</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,19603;41,17458</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,9799;41,8728</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>519918.8135</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>237933.59162801</v>
       </c>
       <c r="AS13" t="n">
-        <v>795036.4046614999</v>
+        <v>1032969.99628951</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>275788.3310102</v>
+        <v>315404.8278222</v>
       </c>
       <c r="U14" t="n">
-        <v>46084.96032</v>
+        <v>52798.22272</v>
       </c>
       <c r="V14" t="n">
-        <v>32779.9734684</v>
+        <v>38748.06512988</v>
       </c>
       <c r="W14" t="n">
         <v>2460</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,9915;41,8812</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,4957;41,4405</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>519918.8135</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>120254.53442551</v>
       </c>
       <c r="AS14" t="n">
-        <v>794853.4046614999</v>
+        <v>915107.93908701</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>414594.503135</v>
+        <v>464272.550855</v>
       </c>
       <c r="U15" t="n">
-        <v>68887.56307600001</v>
+        <v>77305.00786000001</v>
       </c>
       <c r="V15" t="n">
-        <v>56156.24353860001</v>
+        <v>63688.50089322001</v>
       </c>
       <c r="W15" t="n">
         <v>2620</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,12441;41,11132</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,6219;41,5563</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>801991.34375</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>151068.896518665</v>
       </c>
       <c r="AS15" t="n">
-        <v>1225777.08870635</v>
+        <v>1376845.985225015</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>414594.503135</v>
+        <v>472552.225475</v>
       </c>
       <c r="U16" t="n">
-        <v>68887.56307600001</v>
+        <v>78707.915324</v>
       </c>
       <c r="V16" t="n">
-        <v>56156.24353860001</v>
+        <v>64943.51467642</v>
       </c>
       <c r="W16" t="n">
         <v>2700</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,14514;41,12987</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,7257;41,6491</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>801991.34375</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>176244.961893665</v>
       </c>
       <c r="AS16" t="n">
-        <v>1225960.08870635</v>
+        <v>1402205.050600015</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1042538.2670386</v>
+        <v>1118902.4588313</v>
       </c>
       <c r="U17" t="n">
-        <v>171785.225452</v>
+        <v>184721.929585</v>
       </c>
       <c r="V17" t="n">
-        <v>162467.7416</v>
+        <v>174315.71232</v>
       </c>
       <c r="W17" t="n">
         <v>3020</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,19153;41,17557</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,9565;41,8768</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1841823.6416</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>233753.2819504</v>
       </c>
       <c r="AS17" t="n">
-        <v>3175920.8368574</v>
+        <v>3409674.1188078</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5353516.9720946</v>
+        <v>5554367.3040776</v>
       </c>
       <c r="U18" t="n">
-        <v>881721.1611936</v>
+        <v>915738.6710096</v>
       </c>
       <c r="V18" t="n">
-        <v>811299.6486066001</v>
+        <v>841970.1139446201</v>
       </c>
       <c r="W18" t="n">
         <v>3660</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,50716;41,45753</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,25326;41,22876</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11214296.84959</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>611926.3254070149</v>
       </c>
       <c r="AS18" t="n">
-        <v>16117704.96381839</v>
+        <v>16729631.28922541</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8846368.2764493</v>
+        <v>9047218.6084323</v>
       </c>
       <c r="U19" t="n">
-        <v>1456203.3630944</v>
+        <v>1490220.8729104</v>
       </c>
       <c r="V19" t="n">
-        <v>1332465.4719912</v>
+        <v>1363135.93732922</v>
       </c>
       <c r="W19" t="n">
         <v>4700</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,50716;41,45753</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,25326;41,22876</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18195077.00686</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>611926.325407015</v>
       </c>
       <c r="AS19" t="n">
-        <v>26573565.94575006</v>
+        <v>27185492.27115707</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213649.9018131</v>
+        <v>217983.31606965</v>
       </c>
       <c r="U20" t="n">
-        <v>39324.5443764</v>
+        <v>40129.5447793</v>
       </c>
       <c r="V20" t="n">
-        <v>24721.9293796</v>
+        <v>25235.65486112</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,1189;41,762</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,590;41,378</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>548175.27226</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12841.8385553</v>
       </c>
       <c r="AS20" t="n">
-        <v>632295.8519429599</v>
+        <v>645137.69049826</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>282008.59819</v>
+        <v>287786.97348</v>
       </c>
       <c r="U21" t="n">
-        <v>49587.02259920001</v>
+        <v>50619.02274760001</v>
       </c>
       <c r="V21" t="n">
-        <v>34882.3619814</v>
+        <v>35623.56959298</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,1529;41,1100</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,762;41,550</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>650794.6259300001</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17161.120080545</v>
       </c>
       <c r="AS21" t="n">
-        <v>832297.8855175301</v>
+        <v>849459.0055980751</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>395785.2148398</v>
+        <v>406580.2852493</v>
       </c>
       <c r="U22" t="n">
-        <v>67021.33872699999</v>
+        <v>68859.60598075</v>
       </c>
       <c r="V22" t="n">
-        <v>52570.9933468</v>
+        <v>54125.66428336001</v>
       </c>
       <c r="W22" t="n">
         <v>2540</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,2729;41,2313</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,1359;41,1152</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>825304.88375</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>32418.472345595</v>
       </c>
       <c r="AS22" t="n">
-        <v>1173139.6638002</v>
+        <v>1205558.136145795</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>459082.0962075</v>
+        <v>473265.65977125</v>
       </c>
       <c r="U23" t="n">
-        <v>78788.28474799999</v>
+        <v>81196.56423899998</v>
       </c>
       <c r="V23" t="n">
-        <v>63555.0717577</v>
+        <v>65648.10103534001</v>
       </c>
       <c r="W23" t="n">
         <v>2700</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,3580;41,3117</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,1787;41,1551</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>901341.5532750001</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>42835.61039808</v>
       </c>
       <c r="AS23" t="n">
-        <v>1381305.923575475</v>
+        <v>1424141.533973555</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>529460.7263400001</v>
+        <v>546504.4949</v>
       </c>
       <c r="U24" t="n">
-        <v>94802.951674</v>
+        <v>97691.46992599999</v>
       </c>
       <c r="V24" t="n">
-        <v>77713.4688418</v>
+        <v>80288.35714146</v>
       </c>
       <c r="W24" t="n">
         <v>3020</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,4299;41,3835</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,2149;41,1914</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1021439.29565</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>51780.152221845</v>
       </c>
       <c r="AS24" t="n">
-        <v>1644328.53873095</v>
+        <v>1696108.690952795</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>673737.9329417</v>
+        <v>697143.3640451999</v>
       </c>
       <c r="U25" t="n">
-        <v>127640.9916832</v>
+        <v>131604.7460752</v>
       </c>
       <c r="V25" t="n">
-        <v>106449.6567698</v>
+        <v>110097.59949886</v>
       </c>
       <c r="W25" t="n">
         <v>3660</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,5907;41,5441</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,2950;41,2720</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1271239.51893</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>71731.007100395</v>
       </c>
       <c r="AS25" t="n">
-        <v>2181885.30198213</v>
+        <v>2253616.309082525</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/20.xlsx
+++ b/opm_hero_property/heroes/20.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>20</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5554367.3040776</v>
+        <v>6437225.7771816</v>
       </c>
       <c r="U2" t="n">
-        <v>915738.6710096</v>
+        <v>1065268.1220176</v>
       </c>
       <c r="V2" t="n">
-        <v>841970.1139446201</v>
+        <v>977033.2379286202</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11214296.84959</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2300513.46422839</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2904699.7479672</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1794146.9</v>
+      </c>
+      <c r="AU2" t="n">
         <v>611926.3254070149</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16729631.28922541</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19420855.93719261</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>20</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>697143.3640451999</v>
+        <v>796567.9208531999</v>
       </c>
       <c r="U3" t="n">
-        <v>131604.7460752</v>
+        <v>148443.8989712</v>
       </c>
       <c r="V3" t="n">
-        <v>110097.59949886</v>
+        <v>125624.39945086</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1271239.51893</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>261130.78305213</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>568118.7615144</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>203260.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>71731.007100395</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2253616.309082525</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2558510.120596925</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>20</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7401.667600000001</v>
+        <v>7866.667600000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1569.4502</v>
+        <v>1647.4502</v>
       </c>
       <c r="V4" t="n">
-        <v>576.5375</v>
+        <v>647.5375</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18809.314605</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23359.264605</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1411.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24770.714605</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>20</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19753.4238</v>
+        <v>33420.4238</v>
       </c>
       <c r="U5" t="n">
-        <v>3915.5766</v>
+        <v>6229.5766</v>
       </c>
       <c r="V5" t="n">
-        <v>1766.457</v>
+        <v>3856.457</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>47822.13009</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>59810.48009</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>41651.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>101461.58009</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>20</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55885.7572</v>
+        <v>114477.7572</v>
       </c>
       <c r="U6" t="n">
-        <v>10076.95</v>
+        <v>19999.95</v>
       </c>
       <c r="V6" t="n">
-        <v>5670.498</v>
+        <v>14633.498</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>114581.4757</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>162994.5757</v>
+      <c r="AT6" t="n">
+        <v>178597.95</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>341592.5257</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>20</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>63252.1962288</v>
+        <v>121844.1962288</v>
       </c>
       <c r="U7" t="n">
-        <v>11326.9618</v>
+        <v>21249.9618</v>
       </c>
       <c r="V7" t="n">
-        <v>6790.1841422</v>
+        <v>15753.1841422</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>114581.4757</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>178597.95</v>
+      </c>
+      <c r="AU7" t="n">
         <v>22429.71576645</v>
       </c>
-      <c r="AS7" t="n">
-        <v>185607.29146645</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>364205.24146645</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>20</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>70892.40355800001</v>
+        <v>129484.403558</v>
       </c>
       <c r="U8" t="n">
-        <v>12620.4913</v>
+        <v>22543.4913</v>
       </c>
       <c r="V8" t="n">
-        <v>7940.2476202</v>
+        <v>16903.2476202</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>114581.4757</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>746.2499749000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>178597.95</v>
+      </c>
+      <c r="AU8" t="n">
         <v>44861.89166925001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>208785.71734415</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>387383.66734415</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>20</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>237091.8406</v>
+        <v>412956.089006</v>
       </c>
       <c r="U9" t="n">
-        <v>40428.12</v>
+        <v>68928.2512</v>
       </c>
       <c r="V9" t="n">
-        <v>27839.2252</v>
+        <v>53125.909452</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>688439.4135</v>
+        <v>44321.538135</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1206473.001635</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>20</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>246263.4138466</v>
+        <v>479322.9201731468</v>
       </c>
       <c r="U10" t="n">
-        <v>41953.25119999999</v>
+        <v>79711.2721664</v>
       </c>
       <c r="V10" t="n">
-        <v>29190.40103468</v>
+        <v>60954.87282184025</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3423.8061665</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44321.538135</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24040.43340951</v>
       </c>
-      <c r="AS10" t="n">
-        <v>715903.6530760098</v>
+      <c r="AV10" t="n">
+        <v>252669.5756358783</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1392259.216846888</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>20</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>290439.3501382</v>
+        <v>588468.7433179956</v>
       </c>
       <c r="U11" t="n">
-        <v>49148.64831999999</v>
+        <v>95876.39158271998</v>
       </c>
       <c r="V11" t="n">
-        <v>35560.48560188</v>
+        <v>74565.61891124985</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>37814.8678315</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44321.538135</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU11" t="n">
         <v>120254.53442551</v>
       </c>
-      <c r="AS11" t="n">
-        <v>846508.81575701</v>
+      <c r="AV11" t="n">
+        <v>421164.3500864402</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1691359.15397845</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>20</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>302922.0889802</v>
+        <v>683582.3064713101</v>
       </c>
       <c r="U12" t="n">
-        <v>50973.43551999999</v>
+        <v>107133.08762112</v>
       </c>
       <c r="V12" t="n">
-        <v>37154.27536588</v>
+        <v>87103.86392183095</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2520</v>
+        <v>2540</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>72205.9294965</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44321.538135</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU12" t="n">
         <v>120254.53442551</v>
       </c>
-      <c r="AS12" t="n">
-        <v>880899.8774220101</v>
+      <c r="AV12" t="n">
+        <v>631925.963050556</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1936511.828607566</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>20</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>354129.7004312</v>
+        <v>831937.2937627811</v>
       </c>
       <c r="U13" t="n">
-        <v>59360.41952</v>
+        <v>128544.46228512</v>
       </c>
       <c r="V13" t="n">
-        <v>44604.59150788</v>
+        <v>105720.565341795</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="AA13" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>106596.9911615</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44321.538135</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU13" t="n">
         <v>237933.59162801</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1032969.99628951</v>
+      <c r="AV13" t="n">
+        <v>883508.34982092</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2340164.33424543</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>20</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>315404.8278222</v>
+        <v>924467.0798871536</v>
       </c>
       <c r="U14" t="n">
-        <v>52798.22272</v>
+        <v>136685.93041408</v>
       </c>
       <c r="V14" t="n">
-        <v>38748.06512988</v>
+        <v>109955.8393670451</v>
       </c>
       <c r="W14" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="AA14" t="n">
-        <v>3720</v>
+        <v>3770</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>519918.8135</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>106596.9911615</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44138.538135</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>418495.05</v>
+      </c>
+      <c r="AU14" t="n">
         <v>120254.53442551</v>
       </c>
-      <c r="AS14" t="n">
-        <v>915107.93908701</v>
+      <c r="AV14" t="n">
+        <v>1174246.148882805</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2513040.076104815</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>20</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>464272.550855</v>
+        <v>1467190.106685065</v>
       </c>
       <c r="U15" t="n">
-        <v>77305.00786000001</v>
+        <v>227240.7633426</v>
       </c>
       <c r="V15" t="n">
-        <v>63688.50089322001</v>
+        <v>186606.8533110165</v>
       </c>
       <c r="W15" t="n">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AA15" t="n">
-        <v>3840</v>
+        <v>3940</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>801991.34375</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>164584.59495635</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>127735.326875</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>765707.6000000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>151068.896518665</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1376845.985225015</v>
+      <c r="AV15" t="n">
+        <v>1963723.868187335</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4122300.78028735</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>20</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>472552.225475</v>
+        <v>1503548.712890925</v>
       </c>
       <c r="U16" t="n">
-        <v>78707.915324</v>
+        <v>232944.233571384</v>
       </c>
       <c r="V16" t="n">
-        <v>64943.51467642</v>
+        <v>191306.8500243728</v>
       </c>
       <c r="W16" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>801991.34375</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>164584.59495635</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127918.326875</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>765707.6000000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>176244.961893665</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1402205.050600015</v>
+      <c r="AV16" t="n">
+        <v>2042485.334698603</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4226421.312173618</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>20</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1118902.4588313</v>
+        <v>2730416.606663058</v>
       </c>
       <c r="U17" t="n">
-        <v>184721.929585</v>
+        <v>418827.91388728</v>
       </c>
       <c r="V17" t="n">
-        <v>174315.71232</v>
+        <v>375996.3934310401</v>
       </c>
       <c r="W17" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA17" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1841823.6416</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>378438.6952574</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>759331.945664</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1223424.65</v>
+      </c>
+      <c r="AU17" t="n">
         <v>233753.2819504</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3409674.1188078</v>
+      <c r="AV17" t="n">
+        <v>3091844.76024197</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7798583.474713771</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>20</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5554367.3040776</v>
+        <v>9653700.450856835</v>
       </c>
       <c r="U18" t="n">
-        <v>915738.6710096</v>
+        <v>1459513.360415677</v>
       </c>
       <c r="V18" t="n">
-        <v>841970.1139446201</v>
+        <v>1315484.904004197</v>
       </c>
       <c r="W18" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA18" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11214296.84959</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2300513.46422839</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2904699.7479672</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1794146.9</v>
+      </c>
+      <c r="AU18" t="n">
         <v>611926.3254070149</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16729631.28922541</v>
+      <c r="AV18" t="n">
+        <v>7885263.898556531</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27306119.83574913</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>20</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9047218.6084323</v>
+        <v>16526283.03827488</v>
       </c>
       <c r="U19" t="n">
-        <v>1490220.8729104</v>
+        <v>2603219.565388954</v>
       </c>
       <c r="V19" t="n">
-        <v>1363135.93732922</v>
+        <v>2331713.581845156</v>
       </c>
       <c r="W19" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA19" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18195077.00686</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3731976.18889006</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6199808.401029</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1794146.9</v>
+      </c>
+      <c r="AU19" t="n">
         <v>611926.325407015</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27185492.27115707</v>
+      <c r="AV19" t="n">
+        <v>16207192.16288224</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47915969.13506831</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>20</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>217983.31606965</v>
+        <v>224581.31606965</v>
       </c>
       <c r="U20" t="n">
-        <v>40129.5447793</v>
+        <v>41246.5447793</v>
       </c>
       <c r="V20" t="n">
-        <v>25235.65486112</v>
+        <v>26265.65486112</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>548175.27226</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3594.87968296</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20227.8</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12841.8385553</v>
       </c>
-      <c r="AS20" t="n">
-        <v>645137.69049826</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>665365.49049826</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>20</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>287786.97348</v>
+        <v>301415.93818</v>
       </c>
       <c r="U21" t="n">
-        <v>50619.02274760001</v>
+        <v>52947.02295960001</v>
       </c>
       <c r="V21" t="n">
-        <v>35623.56959298</v>
+        <v>37693.47917498001</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>650794.6259300001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>47240.55958753</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72465.2962593</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>35094.45</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17161.120080545</v>
       </c>
-      <c r="AS21" t="n">
-        <v>849459.0055980751</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>891053.1518573751</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>20</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>406580.2852493</v>
+        <v>534418.4688003471</v>
       </c>
       <c r="U22" t="n">
-        <v>68859.60598075</v>
+        <v>87425.15086593575</v>
       </c>
       <c r="V22" t="n">
-        <v>54125.66428336001</v>
+        <v>69763.15420685825</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2520</v>
+        <v>2570</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>825304.88375</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>114712.7300502</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103715.1988375</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>47405.7</v>
+      </c>
+      <c r="AU22" t="n">
         <v>32418.472345595</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1205558.136145795</v>
+      <c r="AV22" t="n">
+        <v>290805.5114814436</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1552014.146464739</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>20</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>473265.65977125</v>
+        <v>692337.9819705525</v>
       </c>
       <c r="U23" t="n">
-        <v>81196.56423899998</v>
+        <v>116591.822133033</v>
       </c>
       <c r="V23" t="n">
-        <v>65648.10103534001</v>
+        <v>93318.76647055963</v>
       </c>
       <c r="W23" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>901341.5532750001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>185007.770300475</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>168334.3310655</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>86743.64999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>42835.61039808</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1424141.533973555</v>
+      <c r="AV23" t="n">
+        <v>520051.946855143</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2048947.461894198</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>20</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>546504.4949</v>
+        <v>870674.3085402</v>
       </c>
       <c r="U24" t="n">
-        <v>97691.46992599999</v>
+        <v>150685.754815202</v>
       </c>
       <c r="V24" t="n">
-        <v>80288.35714146</v>
+        <v>122647.0160230752</v>
       </c>
       <c r="W24" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA24" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1021439.29565</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>209736.04308095</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>296535.771826</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>138601</v>
+      </c>
+      <c r="AU24" t="n">
         <v>51780.152221845</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1696108.690952795</v>
+      <c r="AV24" t="n">
+        <v>756367.0961189813</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2631901.358897776</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>20</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>697143.3640451999</v>
+        <v>1488940.298229561</v>
       </c>
       <c r="U25" t="n">
-        <v>131604.7460752</v>
+        <v>256650.8003969232</v>
       </c>
       <c r="V25" t="n">
-        <v>110097.59949886</v>
+        <v>213933.984407591</v>
       </c>
       <c r="W25" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AA25" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1271239.51893</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>261130.78305213</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>568118.7615144</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>203260.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>71731.007100395</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2253616.309082525</v>
+      <c r="AV25" t="n">
+        <v>1949180.110715055</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4507690.23131198</v>
       </c>
     </row>
   </sheetData>
